--- a/data/pca/factorExposure/factorExposure_2015-10-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01262359591318845</v>
+        <v>0.01512308150496342</v>
       </c>
       <c r="C2">
-        <v>0.0272738082128269</v>
+        <v>0.03639460164582522</v>
       </c>
       <c r="D2">
-        <v>-0.1039351170369734</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1311931893222128</v>
+      </c>
+      <c r="E2">
+        <v>0.05344430839372027</v>
+      </c>
+      <c r="F2">
+        <v>0.01593739746361481</v>
+      </c>
+      <c r="G2">
+        <v>0.08006517415877897</v>
+      </c>
+      <c r="H2">
+        <v>-0.0832596509565884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01657332092764186</v>
+        <v>0.01132596809002858</v>
       </c>
       <c r="C3">
-        <v>0.05566578399574612</v>
+        <v>0.04314295552305487</v>
       </c>
       <c r="D3">
-        <v>-0.09097372412742961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05737565359299739</v>
+      </c>
+      <c r="E3">
+        <v>0.0389565975094377</v>
+      </c>
+      <c r="F3">
+        <v>0.06994068356628103</v>
+      </c>
+      <c r="G3">
+        <v>0.1298697822390237</v>
+      </c>
+      <c r="H3">
+        <v>-0.03221704676116899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04789271023161776</v>
+        <v>0.05172424030604853</v>
       </c>
       <c r="C4">
-        <v>0.05429909340614108</v>
+        <v>0.07045830425170843</v>
       </c>
       <c r="D4">
-        <v>-0.1264259276102742</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1462132267699076</v>
+      </c>
+      <c r="E4">
+        <v>0.04853016352477185</v>
+      </c>
+      <c r="F4">
+        <v>0.03378326092195689</v>
+      </c>
+      <c r="G4">
+        <v>-0.04424463653194811</v>
+      </c>
+      <c r="H4">
+        <v>-0.008532302386645289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03792003630986825</v>
+        <v>0.03900801097006739</v>
       </c>
       <c r="C6">
-        <v>0.01869151692212043</v>
+        <v>0.02880836280416164</v>
       </c>
       <c r="D6">
-        <v>-0.1444382497221477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1430824512373951</v>
+      </c>
+      <c r="E6">
+        <v>0.02097634846704645</v>
+      </c>
+      <c r="F6">
+        <v>0.01536826345176871</v>
+      </c>
+      <c r="G6">
+        <v>0.0003059715284319827</v>
+      </c>
+      <c r="H6">
+        <v>-0.05110139121567528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01590750329501971</v>
+        <v>0.01277619513958341</v>
       </c>
       <c r="C7">
-        <v>0.0275561607645269</v>
+        <v>0.03413843340970257</v>
       </c>
       <c r="D7">
-        <v>-0.1049554483248529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09757736246915594</v>
+      </c>
+      <c r="E7">
+        <v>0.01530987179199253</v>
+      </c>
+      <c r="F7">
+        <v>0.02082748806974905</v>
+      </c>
+      <c r="G7">
+        <v>0.03262009213370582</v>
+      </c>
+      <c r="H7">
+        <v>-0.08697629756043351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01014895832968694</v>
+        <v>0.007002324942174395</v>
       </c>
       <c r="C8">
-        <v>0.02705163994299322</v>
+        <v>0.03860788641878413</v>
       </c>
       <c r="D8">
-        <v>-0.06808232487780068</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08787931780885436</v>
+      </c>
+      <c r="E8">
+        <v>0.03377040812007043</v>
+      </c>
+      <c r="F8">
+        <v>0.06714031216098952</v>
+      </c>
+      <c r="G8">
+        <v>0.04642262215143925</v>
+      </c>
+      <c r="H8">
+        <v>-0.0570027049070741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04037340564525061</v>
+        <v>0.04157497198061261</v>
       </c>
       <c r="C9">
-        <v>0.05153122062163887</v>
+        <v>0.06564744644578079</v>
       </c>
       <c r="D9">
-        <v>-0.109442393089582</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1211195261718248</v>
+      </c>
+      <c r="E9">
+        <v>0.03843126567595134</v>
+      </c>
+      <c r="F9">
+        <v>0.0122830356540278</v>
+      </c>
+      <c r="G9">
+        <v>-0.02453957032533658</v>
+      </c>
+      <c r="H9">
+        <v>-0.01509508767159612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1129578361496441</v>
+        <v>0.1452650823581459</v>
       </c>
       <c r="C10">
-        <v>-0.1855885551245708</v>
+        <v>-0.1879470195848473</v>
       </c>
       <c r="D10">
-        <v>0.003692742282947796</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.006766829094926823</v>
+      </c>
+      <c r="E10">
+        <v>0.04212355813147781</v>
+      </c>
+      <c r="F10">
+        <v>0.05161533748730195</v>
+      </c>
+      <c r="G10">
+        <v>-0.007032208124270457</v>
+      </c>
+      <c r="H10">
+        <v>0.02643096922953096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03007452526161676</v>
+        <v>0.02847383153865952</v>
       </c>
       <c r="C11">
-        <v>0.03993211810733731</v>
+        <v>0.04457798534627482</v>
       </c>
       <c r="D11">
-        <v>-0.05929187483346282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0576498178876922</v>
+      </c>
+      <c r="E11">
+        <v>-0.01015476501465512</v>
+      </c>
+      <c r="F11">
+        <v>-0.008455113973369295</v>
+      </c>
+      <c r="G11">
+        <v>0.007628539984990064</v>
+      </c>
+      <c r="H11">
+        <v>-0.03593201521064357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03646879366023829</v>
+        <v>0.03355871035829359</v>
       </c>
       <c r="C12">
-        <v>0.04224561632526837</v>
+        <v>0.04747166046422192</v>
       </c>
       <c r="D12">
-        <v>-0.06001291938097396</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05588170096241137</v>
+      </c>
+      <c r="E12">
+        <v>-0.0003111807524748395</v>
+      </c>
+      <c r="F12">
+        <v>-0.0121133119306009</v>
+      </c>
+      <c r="G12">
+        <v>0.01839812203143195</v>
+      </c>
+      <c r="H12">
+        <v>-0.0369451781499834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01114755076825226</v>
+        <v>0.0167303753814649</v>
       </c>
       <c r="C13">
-        <v>0.03300294296222873</v>
+        <v>0.03969032987275413</v>
       </c>
       <c r="D13">
-        <v>-0.1380721697751319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1564203289646069</v>
+      </c>
+      <c r="E13">
+        <v>0.02736455866081392</v>
+      </c>
+      <c r="F13">
+        <v>0.05072650043814825</v>
+      </c>
+      <c r="G13">
+        <v>0.03704646567359644</v>
+      </c>
+      <c r="H13">
+        <v>-0.07901760083956168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002855356228422278</v>
+        <v>0.006525678358246042</v>
       </c>
       <c r="C14">
-        <v>0.02132438626383059</v>
+        <v>0.02399896412639741</v>
       </c>
       <c r="D14">
-        <v>-0.08673388266399276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09365029971119987</v>
+      </c>
+      <c r="E14">
+        <v>0.03027980951042693</v>
+      </c>
+      <c r="F14">
+        <v>0.005900711652938605</v>
+      </c>
+      <c r="G14">
+        <v>0.03408371542192471</v>
+      </c>
+      <c r="H14">
+        <v>-0.1022615971203337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002629752058725353</v>
+        <v>0.0009943871844691871</v>
       </c>
       <c r="C15">
-        <v>0.002203449241423105</v>
+        <v>0.01206193969605031</v>
       </c>
       <c r="D15">
-        <v>-0.0027534016682609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03568150154606389</v>
+      </c>
+      <c r="E15">
+        <v>0.009197336040319583</v>
+      </c>
+      <c r="F15">
+        <v>-0.000390560426358127</v>
+      </c>
+      <c r="G15">
+        <v>0.008555027339283853</v>
+      </c>
+      <c r="H15">
+        <v>-0.01749524486300316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02955698490665068</v>
+        <v>0.02884231553174765</v>
       </c>
       <c r="C16">
-        <v>0.04460978090529367</v>
+        <v>0.04598809250296894</v>
       </c>
       <c r="D16">
-        <v>-0.06406724279489445</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06128242421575994</v>
+      </c>
+      <c r="E16">
+        <v>0.006977780644141501</v>
+      </c>
+      <c r="F16">
+        <v>-0.004740862836214788</v>
+      </c>
+      <c r="G16">
+        <v>0.01477490170525225</v>
+      </c>
+      <c r="H16">
+        <v>-0.05248938606873491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006524476066869657</v>
+        <v>0.004999750399192824</v>
       </c>
       <c r="C19">
-        <v>0.03092344522374937</v>
+        <v>0.02509968057191304</v>
       </c>
       <c r="D19">
-        <v>-0.1496580488702386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.11525721273602</v>
+      </c>
+      <c r="E19">
+        <v>0.0586094085415003</v>
+      </c>
+      <c r="F19">
+        <v>-0.004366972073776576</v>
+      </c>
+      <c r="G19">
+        <v>0.04361008035519599</v>
+      </c>
+      <c r="H19">
+        <v>-0.04226016457162883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01239234628240294</v>
+        <v>0.01519809283588294</v>
       </c>
       <c r="C20">
-        <v>0.03187016168909222</v>
+        <v>0.03467906125499365</v>
       </c>
       <c r="D20">
-        <v>-0.08777677704991116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1028109025565563</v>
+      </c>
+      <c r="E20">
+        <v>0.0475679782726855</v>
+      </c>
+      <c r="F20">
+        <v>0.005601265443898021</v>
+      </c>
+      <c r="G20">
+        <v>0.01019674922841027</v>
+      </c>
+      <c r="H20">
+        <v>-0.0582818910699768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.003286723192779418</v>
+        <v>0.008256347529046968</v>
       </c>
       <c r="C21">
-        <v>0.02878031919303391</v>
+        <v>0.03813929628357321</v>
       </c>
       <c r="D21">
-        <v>-0.1303792613045807</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1416063037521961</v>
+      </c>
+      <c r="E21">
+        <v>0.07917655499319423</v>
+      </c>
+      <c r="F21">
+        <v>0.03208995817072179</v>
+      </c>
+      <c r="G21">
+        <v>0.02442548324312032</v>
+      </c>
+      <c r="H21">
+        <v>-0.08093247819829021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.003893005524112012</v>
+        <v>0.005145403276719263</v>
       </c>
       <c r="C22">
-        <v>0.03086830491549069</v>
+        <v>0.04289820794909993</v>
       </c>
       <c r="D22">
-        <v>-0.1018123153570324</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1593823688274714</v>
+      </c>
+      <c r="E22">
+        <v>0.01341663884961969</v>
+      </c>
+      <c r="F22">
+        <v>0.09173879212561961</v>
+      </c>
+      <c r="G22">
+        <v>0.05582253488522382</v>
+      </c>
+      <c r="H22">
+        <v>0.004612521015726912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004008152907654221</v>
+        <v>0.005274660957092434</v>
       </c>
       <c r="C23">
-        <v>0.03083278078978696</v>
+        <v>0.04336596064578536</v>
       </c>
       <c r="D23">
-        <v>-0.1010986737687231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.158678126374413</v>
+      </c>
+      <c r="E23">
+        <v>0.01384747872390314</v>
+      </c>
+      <c r="F23">
+        <v>0.09189000626623463</v>
+      </c>
+      <c r="G23">
+        <v>0.05499030244238639</v>
+      </c>
+      <c r="H23">
+        <v>0.004939225830424718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03282178232315657</v>
+        <v>0.03037965097820307</v>
       </c>
       <c r="C24">
-        <v>0.05178537511385627</v>
+        <v>0.05743496559612234</v>
       </c>
       <c r="D24">
-        <v>-0.06479314601349741</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06459758057404334</v>
+      </c>
+      <c r="E24">
+        <v>0.008586653657605818</v>
+      </c>
+      <c r="F24">
+        <v>-0.006772005556630205</v>
+      </c>
+      <c r="G24">
+        <v>0.008386313434764151</v>
+      </c>
+      <c r="H24">
+        <v>-0.0607678907297452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03753307798640228</v>
+        <v>0.03454553599534155</v>
       </c>
       <c r="C25">
-        <v>0.05014065764770492</v>
+        <v>0.05472632165614105</v>
       </c>
       <c r="D25">
-        <v>-0.06303016139488543</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06134934686253812</v>
+      </c>
+      <c r="E25">
+        <v>0.008816105596954801</v>
+      </c>
+      <c r="F25">
+        <v>-0.001717951751667825</v>
+      </c>
+      <c r="G25">
+        <v>0.01147918519361886</v>
+      </c>
+      <c r="H25">
+        <v>-0.03151468730710281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01490810969380616</v>
+        <v>0.01757847975275666</v>
       </c>
       <c r="C26">
-        <v>0.01236448356097179</v>
+        <v>0.01796246182720536</v>
       </c>
       <c r="D26">
-        <v>-0.05747936582791447</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06500921789991784</v>
+      </c>
+      <c r="E26">
+        <v>0.01866038837403781</v>
+      </c>
+      <c r="F26">
+        <v>0.01089510519594165</v>
+      </c>
+      <c r="G26">
+        <v>0.01874367521184572</v>
+      </c>
+      <c r="H26">
+        <v>-0.06410389032489419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1627173157458363</v>
+        <v>0.2088161499455699</v>
       </c>
       <c r="C28">
-        <v>-0.2568217051044784</v>
+        <v>-0.2525425674918712</v>
       </c>
       <c r="D28">
-        <v>0.01799128601112927</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.002914661152082186</v>
+      </c>
+      <c r="E28">
+        <v>0.07585852859924798</v>
+      </c>
+      <c r="F28">
+        <v>0.02744227517051677</v>
+      </c>
+      <c r="G28">
+        <v>-0.04138757696622665</v>
+      </c>
+      <c r="H28">
+        <v>0.02716670120500197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0004203251832872475</v>
+        <v>0.003856259360259414</v>
       </c>
       <c r="C29">
-        <v>0.02121761393193885</v>
+        <v>0.02304332341061621</v>
       </c>
       <c r="D29">
-        <v>-0.07139180433395059</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.09111698034777689</v>
+      </c>
+      <c r="E29">
+        <v>0.02144057401889317</v>
+      </c>
+      <c r="F29">
+        <v>0.02266629131425707</v>
+      </c>
+      <c r="G29">
+        <v>0.02260697182014685</v>
+      </c>
+      <c r="H29">
+        <v>-0.1053715609520227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0280393596355184</v>
+        <v>0.03692561210869934</v>
       </c>
       <c r="C30">
-        <v>0.04688963050321966</v>
+        <v>0.06207554835998245</v>
       </c>
       <c r="D30">
-        <v>-0.1559794493224103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1724937842157687</v>
+      </c>
+      <c r="E30">
+        <v>0.02321911749316729</v>
+      </c>
+      <c r="F30">
+        <v>0.0112831250485504</v>
+      </c>
+      <c r="G30">
+        <v>-0.005064012130116582</v>
+      </c>
+      <c r="H30">
+        <v>-0.07494016807185443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0600654839238687</v>
+        <v>0.05286581673832016</v>
       </c>
       <c r="C31">
-        <v>0.06234492490156151</v>
+        <v>0.07561890422052611</v>
       </c>
       <c r="D31">
-        <v>-0.07021854994719343</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05304793444712524</v>
+      </c>
+      <c r="E31">
+        <v>0.02150119162347942</v>
+      </c>
+      <c r="F31">
+        <v>0.04095950215368936</v>
+      </c>
+      <c r="G31">
+        <v>0.01027192887882665</v>
+      </c>
+      <c r="H31">
+        <v>-0.020262266482444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.009146879593865804</v>
+        <v>0.01643681472522999</v>
       </c>
       <c r="C32">
-        <v>0.009874725616233137</v>
+        <v>0.01450869986164235</v>
       </c>
       <c r="D32">
-        <v>-0.07113920085710614</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.115396403536147</v>
+      </c>
+      <c r="E32">
+        <v>0.07570084181081969</v>
+      </c>
+      <c r="F32">
+        <v>0.03494486141409947</v>
+      </c>
+      <c r="G32">
+        <v>0.01137079426684438</v>
+      </c>
+      <c r="H32">
+        <v>-0.06843358514177249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02200615417549423</v>
+        <v>0.02380511613976987</v>
       </c>
       <c r="C33">
-        <v>0.03347040055872543</v>
+        <v>0.04307868127300758</v>
       </c>
       <c r="D33">
-        <v>-0.1343098628390352</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1344913199931562</v>
+      </c>
+      <c r="E33">
+        <v>0.03479004135317153</v>
+      </c>
+      <c r="F33">
+        <v>0.01827366752524276</v>
+      </c>
+      <c r="G33">
+        <v>0.0216227564892125</v>
+      </c>
+      <c r="H33">
+        <v>-0.05973900834218616</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03151736186106056</v>
+        <v>0.02713402764678018</v>
       </c>
       <c r="C34">
-        <v>0.06471756325285938</v>
+        <v>0.06222244455269127</v>
       </c>
       <c r="D34">
-        <v>-0.06716790699287847</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05399824165983558</v>
+      </c>
+      <c r="E34">
+        <v>-0.007394110247512695</v>
+      </c>
+      <c r="F34">
+        <v>-0.01718833281737671</v>
+      </c>
+      <c r="G34">
+        <v>0.02218842680422863</v>
+      </c>
+      <c r="H34">
+        <v>-0.04555353886256607</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0007366442109253807</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0009895042156880208</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.007007604286643608</v>
+      </c>
+      <c r="E35">
+        <v>-0.0005754545051392409</v>
+      </c>
+      <c r="F35">
+        <v>0.0007609601526214636</v>
+      </c>
+      <c r="G35">
+        <v>0.001700953751723031</v>
+      </c>
+      <c r="H35">
+        <v>-0.004362836746049916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01794512066042587</v>
+        <v>0.01936425325921166</v>
       </c>
       <c r="C36">
-        <v>0.005980941167429438</v>
+        <v>0.01519493683083413</v>
       </c>
       <c r="D36">
-        <v>-0.07654536898374702</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07785575289871539</v>
+      </c>
+      <c r="E36">
+        <v>0.02653597842247489</v>
+      </c>
+      <c r="F36">
+        <v>0.009410101542214921</v>
+      </c>
+      <c r="G36">
+        <v>0.003025832740602492</v>
+      </c>
+      <c r="H36">
+        <v>-0.05635743139829332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02002240098027332</v>
+        <v>0.02130667762866552</v>
       </c>
       <c r="C38">
-        <v>0.0140693306154598</v>
+        <v>0.02006178555561243</v>
       </c>
       <c r="D38">
-        <v>-0.06311042819280074</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0665305074380332</v>
+      </c>
+      <c r="E38">
+        <v>0.03369306367413868</v>
+      </c>
+      <c r="F38">
+        <v>-0.01154076614301054</v>
+      </c>
+      <c r="G38">
+        <v>0.04131618225251436</v>
+      </c>
+      <c r="H38">
+        <v>-0.03396710263038426</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03454085914737119</v>
+        <v>0.03402013088466023</v>
       </c>
       <c r="C39">
-        <v>0.0545377134646795</v>
+        <v>0.06866777902103859</v>
       </c>
       <c r="D39">
-        <v>-0.08508219251166052</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1010349915610179</v>
+      </c>
+      <c r="E39">
+        <v>0.009132240494464898</v>
+      </c>
+      <c r="F39">
+        <v>-0.03109139207868635</v>
+      </c>
+      <c r="G39">
+        <v>0.01074422468758442</v>
+      </c>
+      <c r="H39">
+        <v>-0.09776426619498088</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01444368979963725</v>
+        <v>0.0115253636928941</v>
       </c>
       <c r="C40">
-        <v>0.04235719243562958</v>
+        <v>0.0402293904710225</v>
       </c>
       <c r="D40">
-        <v>-0.08088174344533093</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08755294054436615</v>
+      </c>
+      <c r="E40">
+        <v>0.04653535806927463</v>
+      </c>
+      <c r="F40">
+        <v>0.09721837653020768</v>
+      </c>
+      <c r="G40">
+        <v>0.142757084903725</v>
+      </c>
+      <c r="H40">
+        <v>-0.1299898799968753</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02451977804576937</v>
+        <v>0.02323342580507835</v>
       </c>
       <c r="C41">
-        <v>0.002346134493397566</v>
+        <v>0.009058987956322434</v>
       </c>
       <c r="D41">
-        <v>-0.06536237526749869</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05442102818333437</v>
+      </c>
+      <c r="E41">
+        <v>0.04734396045672763</v>
+      </c>
+      <c r="F41">
+        <v>0.01155528602262976</v>
+      </c>
+      <c r="G41">
+        <v>0.03270150749705299</v>
+      </c>
+      <c r="H41">
+        <v>-0.03556230849293679</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02637356571403137</v>
+        <v>0.02311870071837623</v>
       </c>
       <c r="C43">
-        <v>0.01391240234181642</v>
+        <v>0.01917670876242994</v>
       </c>
       <c r="D43">
-        <v>-0.1074558258292066</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08408360987557768</v>
+      </c>
+      <c r="E43">
+        <v>0.02444661357840305</v>
+      </c>
+      <c r="F43">
+        <v>0.006211429732112274</v>
+      </c>
+      <c r="G43">
+        <v>0.03718318466937755</v>
+      </c>
+      <c r="H43">
+        <v>-0.04691643945183446</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01383385934831803</v>
+        <v>0.01703253612919557</v>
       </c>
       <c r="C44">
-        <v>0.0398020585497401</v>
+        <v>0.04153300169573278</v>
       </c>
       <c r="D44">
-        <v>-0.08417884583014312</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1075739982049552</v>
+      </c>
+      <c r="E44">
+        <v>0.05581018335757401</v>
+      </c>
+      <c r="F44">
+        <v>0.01459458816419286</v>
+      </c>
+      <c r="G44">
+        <v>0.02525652491158086</v>
+      </c>
+      <c r="H44">
+        <v>-0.0659577149634307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01248593410213507</v>
+        <v>0.01274245263200375</v>
       </c>
       <c r="C46">
-        <v>0.02462381417031723</v>
+        <v>0.0305771750680396</v>
       </c>
       <c r="D46">
-        <v>-0.08198062190291065</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08910073775826445</v>
+      </c>
+      <c r="E46">
+        <v>0.03478577501142634</v>
+      </c>
+      <c r="F46">
+        <v>-0.001250704032308219</v>
+      </c>
+      <c r="G46">
+        <v>0.01996557005080185</v>
+      </c>
+      <c r="H46">
+        <v>-0.09190806268209659</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09192907601210341</v>
+        <v>0.08123678917417108</v>
       </c>
       <c r="C47">
-        <v>0.07276336826405085</v>
+        <v>0.09207799906349592</v>
       </c>
       <c r="D47">
-        <v>-0.04534020018673293</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0342460163335881</v>
+      </c>
+      <c r="E47">
+        <v>0.03488999839039404</v>
+      </c>
+      <c r="F47">
+        <v>0.03478039911700441</v>
+      </c>
+      <c r="G47">
+        <v>0.0101423174364025</v>
+      </c>
+      <c r="H47">
+        <v>0.05248288127841488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01045136056351225</v>
+        <v>0.01446578941239682</v>
       </c>
       <c r="C48">
-        <v>0.01672814420355603</v>
+        <v>0.02047676545330086</v>
       </c>
       <c r="D48">
-        <v>-0.0625912188926194</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07212745014328054</v>
+      </c>
+      <c r="E48">
+        <v>0.05058477644350617</v>
+      </c>
+      <c r="F48">
+        <v>0.01232762445940845</v>
+      </c>
+      <c r="G48">
+        <v>0.008545554991168167</v>
+      </c>
+      <c r="H48">
+        <v>-0.06238976453593664</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0563276528003066</v>
+        <v>0.05027104553343994</v>
       </c>
       <c r="C50">
-        <v>0.05663340781974573</v>
+        <v>0.06890304631454038</v>
       </c>
       <c r="D50">
-        <v>-0.05988067999713879</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05241197980317382</v>
+      </c>
+      <c r="E50">
+        <v>0.02979202695423141</v>
+      </c>
+      <c r="F50">
+        <v>0.03824299772025639</v>
+      </c>
+      <c r="G50">
+        <v>0.04183135549140224</v>
+      </c>
+      <c r="H50">
+        <v>-0.01589768772885276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.008934769565676114</v>
+        <v>0.01058672813600529</v>
       </c>
       <c r="C51">
-        <v>0.01533231023777785</v>
+        <v>0.01894891476067829</v>
       </c>
       <c r="D51">
-        <v>-0.07901020706085421</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09039057077310315</v>
+      </c>
+      <c r="E51">
+        <v>0.008080424889128936</v>
+      </c>
+      <c r="F51">
+        <v>-0.001138627898954642</v>
+      </c>
+      <c r="G51">
+        <v>0.0156814237308339</v>
+      </c>
+      <c r="H51">
+        <v>-0.08692954868521735</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.0896643789286297</v>
+        <v>0.08723836112173429</v>
       </c>
       <c r="C53">
-        <v>0.0882370104954758</v>
+        <v>0.101779094129865</v>
       </c>
       <c r="D53">
-        <v>-0.003269153770872286</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0168999326656954</v>
+      </c>
+      <c r="E53">
+        <v>0.1031350228240329</v>
+      </c>
+      <c r="F53">
+        <v>0.08428846009082008</v>
+      </c>
+      <c r="G53">
+        <v>-0.05184546336587976</v>
+      </c>
+      <c r="H53">
+        <v>0.002470738417584657</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02517515142488896</v>
+        <v>0.02479407467600515</v>
       </c>
       <c r="C54">
-        <v>0.02888427730687797</v>
+        <v>0.03517214075277843</v>
       </c>
       <c r="D54">
-        <v>-0.09279398743592213</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08756436107689877</v>
+      </c>
+      <c r="E54">
+        <v>0.0353379995560141</v>
+      </c>
+      <c r="F54">
+        <v>-0.004517993282340178</v>
+      </c>
+      <c r="G54">
+        <v>0.05409031123182063</v>
+      </c>
+      <c r="H54">
+        <v>-0.08278388844456015</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09014347962094639</v>
+        <v>0.08418285595222616</v>
       </c>
       <c r="C55">
-        <v>0.06382120364341702</v>
+        <v>0.08042775813238358</v>
       </c>
       <c r="D55">
-        <v>0.01409247828360501</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.006712421500073286</v>
+      </c>
+      <c r="E55">
+        <v>0.04968033632534374</v>
+      </c>
+      <c r="F55">
+        <v>0.06132466238971713</v>
+      </c>
+      <c r="G55">
+        <v>-0.02656613443215525</v>
+      </c>
+      <c r="H55">
+        <v>0.004084629573905664</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1402754157304483</v>
+        <v>0.1301497813323522</v>
       </c>
       <c r="C56">
-        <v>0.09840566623720624</v>
+        <v>0.1269405406103183</v>
       </c>
       <c r="D56">
-        <v>0.004531722271771271</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.008114884207267473</v>
+      </c>
+      <c r="E56">
+        <v>0.05576122339597246</v>
+      </c>
+      <c r="F56">
+        <v>0.06082108992565104</v>
+      </c>
+      <c r="G56">
+        <v>-0.00586172580838568</v>
+      </c>
+      <c r="H56">
+        <v>0.04407133378950728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.0001784268308178372</v>
+        <v>0.01382225059243566</v>
       </c>
       <c r="C58">
-        <v>0.007764328907045749</v>
+        <v>0.03281445994291359</v>
       </c>
       <c r="D58">
-        <v>-0.2791979702890774</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3300908541276073</v>
+      </c>
+      <c r="E58">
+        <v>0.1324798932274002</v>
+      </c>
+      <c r="F58">
+        <v>0.0982610612272078</v>
+      </c>
+      <c r="G58">
+        <v>0.02418319440621627</v>
+      </c>
+      <c r="H58">
+        <v>0.06505207260621401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1471215288031091</v>
+        <v>0.1802946625033689</v>
       </c>
       <c r="C59">
-        <v>-0.1800273431090198</v>
+        <v>-0.1674913224557124</v>
       </c>
       <c r="D59">
-        <v>-0.0329975210712598</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05232395245151134</v>
+      </c>
+      <c r="E59">
+        <v>0.03103089066338734</v>
+      </c>
+      <c r="F59">
+        <v>-0.03156906754009172</v>
+      </c>
+      <c r="G59">
+        <v>-0.008478782953203442</v>
+      </c>
+      <c r="H59">
+        <v>0.02316560410674135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2425818387102427</v>
+        <v>0.2266307304011506</v>
       </c>
       <c r="C60">
-        <v>0.07708684063598981</v>
+        <v>0.1058770818165964</v>
       </c>
       <c r="D60">
-        <v>-0.2177052553253631</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1278054613224616</v>
+      </c>
+      <c r="E60">
+        <v>-0.3430034540994514</v>
+      </c>
+      <c r="F60">
+        <v>-0.0575757257185319</v>
+      </c>
+      <c r="G60">
+        <v>-0.08177059785913385</v>
+      </c>
+      <c r="H60">
+        <v>0.1287330344647531</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04235462347687542</v>
+        <v>0.0396632778952835</v>
       </c>
       <c r="C61">
-        <v>0.05338421262677979</v>
+        <v>0.06313428153149291</v>
       </c>
       <c r="D61">
-        <v>-0.1015872804160993</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09315966184864272</v>
+      </c>
+      <c r="E61">
+        <v>0.001901782510491452</v>
+      </c>
+      <c r="F61">
+        <v>-0.02232824668217824</v>
+      </c>
+      <c r="G61">
+        <v>0.01236485200868079</v>
+      </c>
+      <c r="H61">
+        <v>-0.05885295003581329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01572373597819134</v>
+        <v>0.01629270509418508</v>
       </c>
       <c r="C63">
-        <v>0.02260040745332103</v>
+        <v>0.03090911382850348</v>
       </c>
       <c r="D63">
-        <v>-0.07113933254211771</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07235973139124557</v>
+      </c>
+      <c r="E63">
+        <v>0.01552939045502786</v>
+      </c>
+      <c r="F63">
+        <v>0.003366084257469321</v>
+      </c>
+      <c r="G63">
+        <v>0.0001917663944671052</v>
+      </c>
+      <c r="H63">
+        <v>-0.05753638067923536</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05730375531460742</v>
+        <v>0.05139649570371917</v>
       </c>
       <c r="C64">
-        <v>0.0738976418356639</v>
+        <v>0.08315718471466893</v>
       </c>
       <c r="D64">
-        <v>-0.05247630569775218</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05423314008770335</v>
+      </c>
+      <c r="E64">
+        <v>0.02544429169648525</v>
+      </c>
+      <c r="F64">
+        <v>-0.01079551441085985</v>
+      </c>
+      <c r="G64">
+        <v>-0.04422845549569403</v>
+      </c>
+      <c r="H64">
+        <v>-0.04886923891744586</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04153284751054037</v>
+        <v>0.04104111659185534</v>
       </c>
       <c r="C65">
-        <v>0.01601755179993492</v>
+        <v>0.02771756765152188</v>
       </c>
       <c r="D65">
-        <v>-0.1240090533695899</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1210808760467436</v>
+      </c>
+      <c r="E65">
+        <v>-0.004158727006672221</v>
+      </c>
+      <c r="F65">
+        <v>0.00779407736900073</v>
+      </c>
+      <c r="G65">
+        <v>0.009327939627775754</v>
+      </c>
+      <c r="H65">
+        <v>-0.00806115312681452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03962791194408713</v>
+        <v>0.03862564555353615</v>
       </c>
       <c r="C66">
-        <v>0.06033879960477381</v>
+        <v>0.07824525532513051</v>
       </c>
       <c r="D66">
-        <v>-0.1058431216588718</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1280232780983924</v>
+      </c>
+      <c r="E66">
+        <v>0.01197891659045163</v>
+      </c>
+      <c r="F66">
+        <v>-0.01845386622219001</v>
+      </c>
+      <c r="G66">
+        <v>0.01906418569946211</v>
+      </c>
+      <c r="H66">
+        <v>-0.06151033857111635</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04078372627417149</v>
+        <v>0.03898814429342317</v>
       </c>
       <c r="C67">
-        <v>0.01970048264736365</v>
+        <v>0.0265866288261342</v>
       </c>
       <c r="D67">
-        <v>-0.03471107455917525</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02703858262474873</v>
+      </c>
+      <c r="E67">
+        <v>0.01245370661596661</v>
+      </c>
+      <c r="F67">
+        <v>-0.01614709064793599</v>
+      </c>
+      <c r="G67">
+        <v>0.0362595123149017</v>
+      </c>
+      <c r="H67">
+        <v>-0.03237706109945695</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1729379980561287</v>
+        <v>0.2001074079125938</v>
       </c>
       <c r="C68">
-        <v>-0.2274941295465923</v>
+        <v>-0.1959551900850402</v>
       </c>
       <c r="D68">
-        <v>-0.007796966456104636</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0247388386765316</v>
+      </c>
+      <c r="E68">
+        <v>0.0343757982940396</v>
+      </c>
+      <c r="F68">
+        <v>0.02536457210575937</v>
+      </c>
+      <c r="G68">
+        <v>-0.001432749596736093</v>
+      </c>
+      <c r="H68">
+        <v>-0.01596809112279379</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08266688319191867</v>
+        <v>0.07236775936666762</v>
       </c>
       <c r="C69">
-        <v>0.08747154868471611</v>
+        <v>0.09865095491276576</v>
       </c>
       <c r="D69">
-        <v>-0.06740857599495896</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04705930969403351</v>
+      </c>
+      <c r="E69">
+        <v>0.01976185990625623</v>
+      </c>
+      <c r="F69">
+        <v>0.01537042064773778</v>
+      </c>
+      <c r="G69">
+        <v>0.003953656634347269</v>
+      </c>
+      <c r="H69">
+        <v>0.01663280688068481</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1485394197012396</v>
+        <v>0.1844736955918738</v>
       </c>
       <c r="C71">
-        <v>-0.2235560781020959</v>
+        <v>-0.2054603895912748</v>
       </c>
       <c r="D71">
-        <v>-0.02119242974036623</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03864315133247522</v>
+      </c>
+      <c r="E71">
+        <v>0.04753691574789069</v>
+      </c>
+      <c r="F71">
+        <v>0.06590117699650194</v>
+      </c>
+      <c r="G71">
+        <v>0.02451843677239418</v>
+      </c>
+      <c r="H71">
+        <v>0.007938794016089854</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1052620856076901</v>
+        <v>0.09958612400055028</v>
       </c>
       <c r="C72">
-        <v>0.04988135494418</v>
+        <v>0.07823163506941204</v>
       </c>
       <c r="D72">
-        <v>-0.08601232891195111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09347183246111208</v>
+      </c>
+      <c r="E72">
+        <v>-0.04066105929094582</v>
+      </c>
+      <c r="F72">
+        <v>0.02467559680504817</v>
+      </c>
+      <c r="G72">
+        <v>-0.02586660641316806</v>
+      </c>
+      <c r="H72">
+        <v>-0.05762524245320964</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2543395755453337</v>
+        <v>0.2358340259653879</v>
       </c>
       <c r="C73">
-        <v>0.04398916103857403</v>
+        <v>0.0929454419277352</v>
       </c>
       <c r="D73">
-        <v>-0.3272194780239928</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1666734526964198</v>
+      </c>
+      <c r="E73">
+        <v>-0.6444582767850858</v>
+      </c>
+      <c r="F73">
+        <v>-0.1541689670613583</v>
+      </c>
+      <c r="G73">
+        <v>-0.1349369570235464</v>
+      </c>
+      <c r="H73">
+        <v>0.1342477483461275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1064477758559017</v>
+        <v>0.09603898946886009</v>
       </c>
       <c r="C74">
-        <v>0.07441187297702424</v>
+        <v>0.09273776982922284</v>
       </c>
       <c r="D74">
-        <v>0.005303268358927869</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0132347795528175</v>
+      </c>
+      <c r="E74">
+        <v>0.04554896148184193</v>
+      </c>
+      <c r="F74">
+        <v>0.07656282150151672</v>
+      </c>
+      <c r="G74">
+        <v>-0.05525166267229039</v>
+      </c>
+      <c r="H74">
+        <v>0.03236184978533155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2506995877906454</v>
+        <v>0.2266463529953786</v>
       </c>
       <c r="C75">
-        <v>0.1292383094319575</v>
+        <v>0.1646311942523824</v>
       </c>
       <c r="D75">
-        <v>0.07522266088651637</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09710587031589436</v>
+      </c>
+      <c r="E75">
+        <v>0.1100133465461029</v>
+      </c>
+      <c r="F75">
+        <v>0.03285801889474155</v>
+      </c>
+      <c r="G75">
+        <v>-0.03587258467627476</v>
+      </c>
+      <c r="H75">
+        <v>0.1017339196880393</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.136411574714157</v>
+        <v>0.1248038271870761</v>
       </c>
       <c r="C76">
-        <v>0.09357480018301387</v>
+        <v>0.1121962392453718</v>
       </c>
       <c r="D76">
-        <v>0.005933281856350493</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.006234850934567232</v>
+      </c>
+      <c r="E76">
+        <v>0.109266875038169</v>
+      </c>
+      <c r="F76">
+        <v>0.04648933103796744</v>
+      </c>
+      <c r="G76">
+        <v>-0.02050042892868175</v>
+      </c>
+      <c r="H76">
+        <v>-0.006874977871299043</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04913729674506908</v>
+        <v>0.05796816441446888</v>
       </c>
       <c r="C77">
-        <v>0.06690427661886426</v>
+        <v>0.07035128097163924</v>
       </c>
       <c r="D77">
-        <v>-0.04065757538086965</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.128634151704178</v>
+      </c>
+      <c r="E77">
+        <v>0.2972820292233072</v>
+      </c>
+      <c r="F77">
+        <v>-0.2375549255087276</v>
+      </c>
+      <c r="G77">
+        <v>0.2776638629470269</v>
+      </c>
+      <c r="H77">
+        <v>0.7624177481603952</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03732048434503981</v>
+        <v>0.04383006133069944</v>
       </c>
       <c r="C78">
-        <v>0.0547042521396362</v>
+        <v>0.0700432284278739</v>
       </c>
       <c r="D78">
-        <v>-0.125453191923936</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1397242053663067</v>
+      </c>
+      <c r="E78">
+        <v>0.01987390684802098</v>
+      </c>
+      <c r="F78">
+        <v>0.02472537490947902</v>
+      </c>
+      <c r="G78">
+        <v>0.01198756752741516</v>
+      </c>
+      <c r="H78">
+        <v>-9.795405728794346e-05</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.03442559227067295</v>
+        <v>0.04725471398363715</v>
       </c>
       <c r="C79">
-        <v>0.07952485984780944</v>
+        <v>0.09634224026752013</v>
       </c>
       <c r="D79">
-        <v>0.09882138384815625</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02407413925239403</v>
+      </c>
+      <c r="E79">
+        <v>0.2126406934687443</v>
+      </c>
+      <c r="F79">
+        <v>0.3174060399039779</v>
+      </c>
+      <c r="G79">
+        <v>-0.7605769841162957</v>
+      </c>
+      <c r="H79">
+        <v>0.1498675325524838</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02505709613615609</v>
+        <v>0.02426846085164268</v>
       </c>
       <c r="C80">
-        <v>0.04179024734978981</v>
+        <v>0.04630957371701661</v>
       </c>
       <c r="D80">
-        <v>-0.01680639423497864</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.021097647132429</v>
+      </c>
+      <c r="E80">
+        <v>0.01856475706621437</v>
+      </c>
+      <c r="F80">
+        <v>-0.002968480045332172</v>
+      </c>
+      <c r="G80">
+        <v>0.01736387149331048</v>
+      </c>
+      <c r="H80">
+        <v>-0.05123965805865444</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1401102549088222</v>
+        <v>0.1237433481364712</v>
       </c>
       <c r="C81">
-        <v>0.1044343877099863</v>
+        <v>0.1214270799952438</v>
       </c>
       <c r="D81">
-        <v>0.06702264589955316</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07564619102002407</v>
+      </c>
+      <c r="E81">
+        <v>0.1086776225818754</v>
+      </c>
+      <c r="F81">
+        <v>0.06014583101230105</v>
+      </c>
+      <c r="G81">
+        <v>-0.01476006524424507</v>
+      </c>
+      <c r="H81">
+        <v>0.02131031720108932</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3094758074498519</v>
+        <v>0.2578715242137066</v>
       </c>
       <c r="C82">
-        <v>0.2672559308349641</v>
+        <v>0.2674627293096762</v>
       </c>
       <c r="D82">
-        <v>0.2394989994908857</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2480058488812172</v>
+      </c>
+      <c r="E82">
+        <v>-0.03109601985783161</v>
+      </c>
+      <c r="F82">
+        <v>0.054344053181506</v>
+      </c>
+      <c r="G82">
+        <v>0.2283609560290011</v>
+      </c>
+      <c r="H82">
+        <v>0.02662337993683217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0273716928949017</v>
+        <v>0.02184441604961414</v>
       </c>
       <c r="C83">
-        <v>0.05353561615694222</v>
+        <v>0.05076603184379007</v>
       </c>
       <c r="D83">
-        <v>-0.04528339426851235</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04934230981042206</v>
+      </c>
+      <c r="E83">
+        <v>0.02743944201672749</v>
+      </c>
+      <c r="F83">
+        <v>-0.05386396310919361</v>
+      </c>
+      <c r="G83">
+        <v>0.05208442394579203</v>
+      </c>
+      <c r="H83">
+        <v>0.08715545231362187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0008260758910442536</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004853728686892413</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01878239278205698</v>
+      </c>
+      <c r="E84">
+        <v>0.01844018755746259</v>
+      </c>
+      <c r="F84">
+        <v>0.01382834004510129</v>
+      </c>
+      <c r="G84">
+        <v>0.005656384983125338</v>
+      </c>
+      <c r="H84">
+        <v>-0.01959914568176295</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1742989337179738</v>
+        <v>0.1561295472958254</v>
       </c>
       <c r="C85">
-        <v>0.1074446616013374</v>
+        <v>0.1373575997806206</v>
       </c>
       <c r="D85">
-        <v>0.03398884688791042</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.0609266597974561</v>
+      </c>
+      <c r="E85">
+        <v>0.04579977474535226</v>
+      </c>
+      <c r="F85">
+        <v>0.05634381760427079</v>
+      </c>
+      <c r="G85">
+        <v>-0.1047189055935355</v>
+      </c>
+      <c r="H85">
+        <v>-0.006511648535822898</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01313495741292855</v>
+        <v>0.01830063711239292</v>
       </c>
       <c r="C86">
-        <v>0.03755079882636367</v>
+        <v>0.02700835387640583</v>
       </c>
       <c r="D86">
-        <v>-0.1198283059794216</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1178036042078763</v>
+      </c>
+      <c r="E86">
+        <v>0.01731059015800963</v>
+      </c>
+      <c r="F86">
+        <v>0.0008233404674900914</v>
+      </c>
+      <c r="G86">
+        <v>0.07034742196614473</v>
+      </c>
+      <c r="H86">
+        <v>0.04029983936954346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02555590592183388</v>
+        <v>0.03544883875357795</v>
       </c>
       <c r="C87">
-        <v>0.008670339056331784</v>
+        <v>0.02563613333258899</v>
       </c>
       <c r="D87">
-        <v>-0.1031373118803421</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1440994590847448</v>
+      </c>
+      <c r="E87">
+        <v>0.08074298351711794</v>
+      </c>
+      <c r="F87">
+        <v>0.01559873544528656</v>
+      </c>
+      <c r="G87">
+        <v>0.03073085452668524</v>
+      </c>
+      <c r="H87">
+        <v>-0.04261831596939124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07412332085395321</v>
+        <v>0.06688212446880236</v>
       </c>
       <c r="C88">
-        <v>0.04060185905173289</v>
+        <v>0.05505089797713267</v>
       </c>
       <c r="D88">
-        <v>-0.04609455440028554</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02399660247290657</v>
+      </c>
+      <c r="E88">
+        <v>-0.003174241298384032</v>
+      </c>
+      <c r="F88">
+        <v>0.02966984619410619</v>
+      </c>
+      <c r="G88">
+        <v>0.0038572076671761</v>
+      </c>
+      <c r="H88">
+        <v>-0.03607514099592595</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2375525624728315</v>
+        <v>0.2858345565945816</v>
       </c>
       <c r="C89">
-        <v>-0.4037805393867242</v>
+        <v>-0.3490592237174533</v>
       </c>
       <c r="D89">
-        <v>0.0245119545473258</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.00903790167851623</v>
+      </c>
+      <c r="E89">
+        <v>0.0628140459391081</v>
+      </c>
+      <c r="F89">
+        <v>-0.008825687156543867</v>
+      </c>
+      <c r="G89">
+        <v>-0.01299905373475623</v>
+      </c>
+      <c r="H89">
+        <v>-0.104129280734883</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.212154212707192</v>
+        <v>0.2423817299317899</v>
       </c>
       <c r="C90">
-        <v>-0.2933339370755717</v>
+        <v>-0.248703645335523</v>
       </c>
       <c r="D90">
-        <v>-0.002219188511905125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02275485620723158</v>
+      </c>
+      <c r="E90">
+        <v>0.04428317066599904</v>
+      </c>
+      <c r="F90">
+        <v>-0.001598689983837991</v>
+      </c>
+      <c r="G90">
+        <v>0.06371324479471115</v>
+      </c>
+      <c r="H90">
+        <v>-0.01842239415066673</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1772936823446253</v>
+        <v>0.155531014354506</v>
       </c>
       <c r="C91">
-        <v>0.1460298829614076</v>
+        <v>0.1570434199705941</v>
       </c>
       <c r="D91">
-        <v>0.08709916359034041</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08605977762068112</v>
+      </c>
+      <c r="E91">
+        <v>0.1071400096256619</v>
+      </c>
+      <c r="F91">
+        <v>0.06778795758911796</v>
+      </c>
+      <c r="G91">
+        <v>-0.07843806667031056</v>
+      </c>
+      <c r="H91">
+        <v>0.07284400799225016</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.183876430079845</v>
+        <v>0.2275707575110974</v>
       </c>
       <c r="C92">
-        <v>-0.2800964891906766</v>
+        <v>-0.269942617737722</v>
       </c>
       <c r="D92">
-        <v>-0.01483511067931078</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03054192506535572</v>
+      </c>
+      <c r="E92">
+        <v>0.07770791472428507</v>
+      </c>
+      <c r="F92">
+        <v>0.002933109971057085</v>
+      </c>
+      <c r="G92">
+        <v>0.03369953830852924</v>
+      </c>
+      <c r="H92">
+        <v>0.001655546675307843</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2326820560276623</v>
+        <v>0.2637488205035028</v>
       </c>
       <c r="C93">
-        <v>-0.2978472403756976</v>
+        <v>-0.2584624605146004</v>
       </c>
       <c r="D93">
-        <v>-0.00516765673013661</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.005131286325697999</v>
+      </c>
+      <c r="E93">
+        <v>-0.002701966316234935</v>
+      </c>
+      <c r="F93">
+        <v>0.01519724473547575</v>
+      </c>
+      <c r="G93">
+        <v>-0.01228700722696399</v>
+      </c>
+      <c r="H93">
+        <v>-0.006703487608589158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3793687458244505</v>
+        <v>0.3301128429571733</v>
       </c>
       <c r="C94">
-        <v>0.2230224932170813</v>
+        <v>0.2610848065797355</v>
       </c>
       <c r="D94">
-        <v>0.4355149356426938</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4266314396800587</v>
+      </c>
+      <c r="E94">
+        <v>0.05701048380300786</v>
+      </c>
+      <c r="F94">
+        <v>-0.06364577301949581</v>
+      </c>
+      <c r="G94">
+        <v>0.2015895912021703</v>
+      </c>
+      <c r="H94">
+        <v>-0.27325181311342</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07219046583893761</v>
+        <v>0.06598828186302833</v>
       </c>
       <c r="C95">
-        <v>0.07242906925282808</v>
+        <v>0.07257191471494237</v>
       </c>
       <c r="D95">
-        <v>-0.05838075391338456</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.05802448416444331</v>
+      </c>
+      <c r="E95">
+        <v>0.2496959628188257</v>
+      </c>
+      <c r="F95">
+        <v>-0.8341556746988322</v>
+      </c>
+      <c r="G95">
+        <v>-0.3160667693192823</v>
+      </c>
+      <c r="H95">
+        <v>-0.1934581384650912</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1674453388247401</v>
+        <v>0.1618944240198916</v>
       </c>
       <c r="C98">
-        <v>0.03768204172391498</v>
+        <v>0.07098527452154117</v>
       </c>
       <c r="D98">
-        <v>-0.1818753160014103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1263719290459142</v>
+      </c>
+      <c r="E98">
+        <v>-0.3060959492578412</v>
+      </c>
+      <c r="F98">
+        <v>-0.01952924314636384</v>
+      </c>
+      <c r="G98">
+        <v>-0.06586491290081235</v>
+      </c>
+      <c r="H98">
+        <v>0.07715522426555592</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0004501982994097956</v>
+        <v>0.0039362806733233</v>
       </c>
       <c r="C101">
-        <v>0.02058462223381409</v>
+        <v>0.02229941523469395</v>
       </c>
       <c r="D101">
-        <v>-0.07149348295726092</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.09096524861642642</v>
+      </c>
+      <c r="E101">
+        <v>0.02216853772194951</v>
+      </c>
+      <c r="F101">
+        <v>0.02218955195028761</v>
+      </c>
+      <c r="G101">
+        <v>0.02233122556927207</v>
+      </c>
+      <c r="H101">
+        <v>-0.1048190483761005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1256805397268897</v>
+        <v>0.1057519737694931</v>
       </c>
       <c r="C102">
-        <v>0.1203089343327659</v>
+        <v>0.1214040624560409</v>
       </c>
       <c r="D102">
-        <v>0.04837695207875106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06349131999888473</v>
+      </c>
+      <c r="E102">
+        <v>0.03407183402709301</v>
+      </c>
+      <c r="F102">
+        <v>-0.005449482617112475</v>
+      </c>
+      <c r="G102">
+        <v>0.01359900421229615</v>
+      </c>
+      <c r="H102">
+        <v>0.03783362172778079</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
